--- a/price.xlsx
+++ b/price.xlsx
@@ -419,7 +419,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1526301231104</v>
+        <v>1526350746056</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -427,13 +427,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>8385.35</v>
+        <v>8673.370000000001</v>
       </c>
       <c r="C3">
-        <v>8380.8915</v>
+        <v>8669.6636</v>
       </c>
       <c r="D3">
-        <v>8368.450000000001</v>
+        <v>8664.42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -441,13 +441,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>8387.9</v>
+        <v>8679.860000000001</v>
       </c>
       <c r="C4">
-        <v>8396.8012</v>
+        <v>8687.1564</v>
       </c>
       <c r="D4">
-        <v>8385.370000000001</v>
+        <v>8676.48</v>
       </c>
     </row>
   </sheetData>
@@ -479,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1526301231060</v>
+        <v>1526350746080</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -487,13 +487,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>705.97</v>
+        <v>726.21</v>
       </c>
       <c r="C3">
-        <v>705.6781</v>
+        <v>725.86</v>
       </c>
       <c r="D3">
-        <v>704.3099999999999</v>
+        <v>726.6799999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -501,13 +501,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>706.8</v>
+        <v>726.27</v>
       </c>
       <c r="C4">
-        <v>706.0921</v>
+        <v>726.942</v>
       </c>
       <c r="D4">
-        <v>706.1</v>
+        <v>727.34</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1526301230561</v>
+        <v>1526350750988</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>6.57</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -549,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>6.58</v>
+        <v>6.51</v>
       </c>
     </row>
   </sheetData>
@@ -575,7 +575,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1526301230765</v>
+        <v>1526350751119</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -591,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.8277</v>
+        <v>0.8288</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +617,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1526301231146</v>
+        <v>1526350751704</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -625,7 +625,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>55170</v>
+        <v>56412</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -633,7 +633,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>55150</v>
+        <v>56500</v>
       </c>
     </row>
   </sheetData>
@@ -659,7 +659,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1526301231632</v>
+        <v>1526350752190</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -667,7 +667,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>4641</v>
+        <v>4733</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -675,7 +675,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>4655</v>
+        <v>4740</v>
       </c>
     </row>
   </sheetData>

--- a/price.xlsx
+++ b/price.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XX\Projects\ccxt\price_compare\IDCM_Compare\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
@@ -14,7 +19,7 @@
     <sheet name="btc_c2c_price" sheetId="5" r:id="rId5"/>
     <sheet name="eth_c2c_price" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -45,12 +50,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -58,8 +63,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -105,15 +117,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -155,7 +175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -187,9 +207,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,6 +242,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -396,14 +418,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,7 +441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -422,48 +449,49 @@
         <v>1526350746056</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>8673.370000000001</v>
+        <v>8673.3700000000008</v>
       </c>
       <c r="C3">
-        <v>8669.6636</v>
+        <v>8669.6635999999999</v>
       </c>
       <c r="D3">
         <v>8664.42</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>8679.860000000001</v>
+        <v>8679.86</v>
       </c>
       <c r="C4">
-        <v>8687.1564</v>
+        <v>8687.1563999999998</v>
       </c>
       <c r="D4">
         <v>8676.48</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -482,7 +510,7 @@
         <v>1526350746080</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -493,10 +521,10 @@
         <v>725.86</v>
       </c>
       <c r="D3">
-        <v>726.6799999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>726.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -504,31 +532,32 @@
         <v>726.27</v>
       </c>
       <c r="C4">
-        <v>726.942</v>
+        <v>726.94200000000001</v>
       </c>
       <c r="D4">
         <v>727.34</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -536,7 +565,7 @@
         <v>1526350750988</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -544,7 +573,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -553,24 +582,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -578,7 +608,7 @@
         <v>1526350751119</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -586,33 +616,34 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.8288</v>
+        <v>0.82879999999999998</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -620,7 +651,7 @@
         <v>1526350751704</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -628,7 +659,7 @@
         <v>56412</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -637,24 +668,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -662,7 +694,7 @@
         <v>1526350752190</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -670,7 +702,7 @@
         <v>4733</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -679,6 +711,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>